--- a/BackTest/2020-01-24 BackTest AMO.xlsx
+++ b/BackTest/2020-01-24 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1507,14 +1507,10 @@
         <v>-32806265.03519999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.2522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1547,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1586,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1886,14 +1870,10 @@
         <v>-35721559.49419999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.2531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1926,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1962,19 +1936,11 @@
         <v>-38518193.27819999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2003,14 +1969,10 @@
         <v>-37420765.95119999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.2513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2040,19 +2002,11 @@
         <v>-37420765.95119999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2084,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2186,14 +2134,10 @@
         <v>-35217435.5332</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.2517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2223,19 +2167,11 @@
         <v>-29234516.87509999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2267,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3784,7 @@
         <v>-27073565.26909999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3920,7 +3850,7 @@
         <v>-24709195.36709999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3953,7 +3883,7 @@
         <v>-23535486.17809999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4151,7 +4081,7 @@
         <v>-26518586.73409999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4217,7 +4147,7 @@
         <v>-24722092.91109999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4250,7 +4180,7 @@
         <v>-23955220.31609999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4283,7 +4213,7 @@
         <v>-24679714.09909999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4316,7 +4246,7 @@
         <v>-23556859.48509999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4349,7 +4279,7 @@
         <v>-22179731.99909999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4382,7 +4312,7 @@
         <v>-23294110.85109999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4448,7 +4378,7 @@
         <v>-23836559.64309999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4481,7 +4411,7 @@
         <v>-22417053.34509999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4646,7 +4576,7 @@
         <v>-24073880.98909999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4745,7 +4675,7 @@
         <v>-22383150.29509999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4778,7 +4708,7 @@
         <v>-23328013.90009999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4811,7 +4741,7 @@
         <v>-21857653.02809999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4844,7 +4774,7 @@
         <v>-23260207.80109999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4877,7 +4807,7 @@
         <v>-24137265.30609999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4910,7 +4840,7 @@
         <v>-23294110.85009999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4943,7 +4873,7 @@
         <v>-24823802.05909999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4976,7 +4906,7 @@
         <v>-23624665.58309999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5009,7 +4939,7 @@
         <v>-25018744.59409999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5042,7 +4972,7 @@
         <v>-24209493.18809999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5075,7 +5005,7 @@
         <v>-27646491.11949999</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5108,7 +5038,7 @@
         <v>-29074473.17949999</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5141,7 +5071,7 @@
         <v>-30214279.31849999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5174,7 +5104,7 @@
         <v>-30212297.28339999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5207,7 +5137,7 @@
         <v>-31513142.90739999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5240,7 +5170,7 @@
         <v>-32729230.90839999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5273,7 +5203,7 @@
         <v>-31809794.59139999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5306,7 +5236,7 @@
         <v>-30915785.56139999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5339,7 +5269,7 @@
         <v>-29555609.60039999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5372,7 +5302,7 @@
         <v>-29553624.28389999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6065,7 +5995,7 @@
         <v>-32440255.35439998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6098,7 +6028,7 @@
         <v>-30995321.76939997</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6131,7 +6061,7 @@
         <v>-30296255.27439997</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6164,7 +6094,7 @@
         <v>-29309012.85839997</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6989,7 +6919,7 @@
         <v>-29519691.56749996</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7022,7 +6952,7 @@
         <v>-30837488.71649996</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7055,7 +6985,7 @@
         <v>-30837488.71649996</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7088,7 +7018,7 @@
         <v>-31689118.93449996</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7451,7 +7381,7 @@
         <v>-33113308.76119996</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7748,7 +7678,7 @@
         <v>-29232145.19419996</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7814,7 +7744,7 @@
         <v>-30354999.80819996</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7847,7 +7777,7 @@
         <v>-29240620.95619996</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7979,7 +7909,7 @@
         <v>-29537272.64019996</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8045,7 +7975,7 @@
         <v>-29367757.39319996</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8078,7 +8008,7 @@
         <v>-29365751.17109996</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8111,7 +8041,7 @@
         <v>-30141099.52809996</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8837,7 +8767,7 @@
         <v>-30088867.37629995</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8870,7 +8800,7 @@
         <v>-31186294.70329995</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8903,7 +8833,7 @@
         <v>-31184072.70329995</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9167,7 +9097,7 @@
         <v>-29891702.84029995</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9200,7 +9130,7 @@
         <v>-31400314.86099995</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9233,7 +9163,7 @@
         <v>-30252032.95899995</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9266,7 +9196,7 @@
         <v>-31756296.88099995</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -11642,14 +11572,10 @@
         <v>-38412270.94279995</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="J339" t="n">
-        <v>0.2535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
@@ -11679,19 +11605,11 @@
         <v>-39526649.79479995</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="J340" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11723,14 +11641,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12023,14 +11935,10 @@
         <v>-44200248.21049994</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="J350" t="n">
-        <v>0.2538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
@@ -12063,14 +11971,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12102,14 +12004,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12138,14 +12034,10 @@
         <v>-43450327.14049994</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="J353" t="n">
-        <v>0.2536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
@@ -12178,14 +12070,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12214,19 +12100,11 @@
         <v>-45329158.99789994</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="J355" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12255,19 +12133,11 @@
         <v>-45329158.99789994</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="J356" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12296,19 +12166,11 @@
         <v>-44452101.49289994</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="J357" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12337,19 +12199,11 @@
         <v>-45295255.94889994</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="J358" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12378,19 +12232,11 @@
         <v>-43765564.73989994</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="J359" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12419,19 +12265,11 @@
         <v>-44964701.21589994</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="J360" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12460,19 +12298,11 @@
         <v>-43570622.20489994</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="J361" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12501,19 +12331,11 @@
         <v>-42275179.49899995</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="J362" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12542,19 +12364,11 @@
         <v>-41296412.84499995</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="J363" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12586,14 +12400,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12625,14 +12433,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12664,14 +12466,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12703,14 +12499,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12739,19 +12529,13 @@
         <v>-39285802.96299995</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
-        <v>1.002097791798108</v>
+        <v>1</v>
       </c>
       <c r="M368" t="inlineStr"/>
     </row>
@@ -12778,7 +12562,7 @@
         <v>-40271201.32899994</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12976,7 +12760,7 @@
         <v>-44593272.92549995</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13009,7 +12793,7 @@
         <v>-44593272.92549995</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13042,7 +12826,7 @@
         <v>-45300815.18349995</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13075,7 +12859,7 @@
         <v>-45298438.28649995</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13108,7 +12892,7 @@
         <v>-47825625.69499995</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13141,7 +12925,7 @@
         <v>-49084092.50799995</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13174,7 +12958,7 @@
         <v>-48300268.38899995</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13207,7 +12991,7 @@
         <v>-49304462.32999995</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13240,7 +13024,7 @@
         <v>-48012092.46799994</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13273,7 +13057,7 @@
         <v>-49160374.36999995</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13306,7 +13090,7 @@
         <v>-47656110.44799995</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13339,7 +13123,7 @@
         <v>-47656110.44799995</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13372,7 +13156,7 @@
         <v>-48685731.67599995</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13405,7 +13189,7 @@
         <v>-47256533.55929995</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13438,7 +13222,7 @@
         <v>-46218436.56829995</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13471,7 +13255,7 @@
         <v>-50563552.48649995</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13504,7 +13288,7 @@
         <v>-49076240.08949995</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13537,7 +13321,7 @@
         <v>-50521173.67449995</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13570,7 +13354,7 @@
         <v>-49822107.17949995</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13603,7 +13387,7 @@
         <v>-50809349.59549996</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13636,7 +13420,7 @@
         <v>-52220380.13049995</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13702,7 +13486,7 @@
         <v>-52508556.05149996</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13735,7 +13519,7 @@
         <v>-51673877.35749996</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13768,7 +13552,7 @@
         <v>-52406846.90249996</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13801,7 +13585,7 @@
         <v>-50953437.55549996</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13834,7 +13618,7 @@
         <v>-50161137.67349996</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13867,7 +13651,7 @@
         <v>-50961913.31749996</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13900,7 +13684,7 @@
         <v>-50961913.31749996</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13933,7 +13717,7 @@
         <v>-52067816.40749996</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13966,7 +13750,7 @@
         <v>-52936398.15049996</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14032,7 +13816,7 @@
         <v>-50461843.33749996</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14065,7 +13849,7 @@
         <v>-51652504.05149996</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14098,7 +13882,7 @@
         <v>-50576173.14639996</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14131,7 +13915,7 @@
         <v>-57573972.83539996</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14164,7 +13948,7 @@
         <v>-56442642.45839997</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14197,7 +13981,7 @@
         <v>-56479751.11989997</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14230,7 +14014,7 @@
         <v>-54991116.19379997</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14263,7 +14047,7 @@
         <v>-56649407.08579996</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14296,7 +14080,7 @@
         <v>-57407803.91779996</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14362,7 +14146,7 @@
         <v>-64003127.65449996</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14461,7 +14245,7 @@
         <v>-64003127.65449996</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -17893,10 +17677,14 @@
         <v>-87059947.09239997</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0.2529</v>
+      </c>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
@@ -17926,11 +17714,19 @@
         <v>-85928616.71539997</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17962,8 +17758,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17992,11 +17794,19 @@
         <v>-84036833.04889996</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18028,8 +17838,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18058,11 +17874,19 @@
         <v>-83441543.22849996</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18094,8 +17918,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18127,8 +17957,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18160,8 +17996,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18193,8 +18035,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18226,8 +18074,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18256,11 +18110,19 @@
         <v>-83051658.15849996</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="J535" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18292,8 +18154,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18322,11 +18190,19 @@
         <v>-81141139.18049996</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="J537" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18355,11 +18231,19 @@
         <v>-80323412.01149996</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18391,8 +18275,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18424,8 +18314,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18457,8 +18353,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18487,11 +18389,19 @@
         <v>-81751394.07149994</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="J542" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18523,8 +18433,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18556,8 +18472,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18589,8 +18511,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18622,8 +18550,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18655,8 +18589,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18688,8 +18628,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18721,8 +18667,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18754,8 +18706,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18787,8 +18745,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18820,8 +18784,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18853,8 +18823,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18886,8 +18862,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18919,8 +18901,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18952,8 +18940,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18985,8 +18979,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19018,8 +19018,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19051,8 +19057,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19084,8 +19096,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19117,8 +19135,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19150,8 +19174,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19183,8 +19213,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19216,8 +19252,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19249,8 +19291,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19282,8 +19330,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19315,8 +19369,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19348,8 +19408,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19381,8 +19447,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19414,8 +19486,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19447,8 +19525,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19480,8 +19564,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19513,8 +19603,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19546,8 +19642,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19579,8 +19681,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19612,8 +19720,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19645,8 +19759,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19678,8 +19798,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19711,8 +19837,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19744,8 +19876,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19777,8 +19915,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19810,8 +19954,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19843,8 +19993,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19876,8 +20032,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19909,8 +20071,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19942,8 +20110,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19975,8 +20149,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20008,8 +20188,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20041,8 +20227,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20074,8 +20266,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20107,8 +20305,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20140,8 +20344,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20173,8 +20383,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20206,8 +20422,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20239,8 +20461,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20272,8 +20500,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20305,8 +20539,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20338,8 +20578,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20371,8 +20617,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20404,8 +20656,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20437,8 +20695,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20470,8 +20734,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20503,8 +20773,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20536,8 +20812,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20569,8 +20851,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20602,8 +20890,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20635,8 +20929,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20668,8 +20968,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20701,8 +21007,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20734,8 +21046,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20767,8 +21085,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20800,8 +21124,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20833,8 +21163,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20866,8 +21202,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20899,8 +21241,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20932,8 +21280,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20965,8 +21319,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20998,8 +21358,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21031,8 +21397,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21064,8 +21436,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21097,8 +21475,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21130,8 +21514,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21163,8 +21553,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21196,8 +21592,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21229,8 +21631,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21262,8 +21670,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21295,8 +21709,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21328,8 +21748,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21361,8 +21787,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21394,8 +21826,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21427,8 +21865,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21457,11 +21901,19 @@
         <v>-101408542.6</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="J632" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21490,11 +21942,19 @@
         <v>-100022939.352</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="J633" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21523,11 +21983,19 @@
         <v>-100022939.352</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="J634" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21556,11 +22024,19 @@
         <v>-101213600.066</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="J635" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21589,11 +22065,19 @@
         <v>-100200930.362</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="J636" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21625,14 +22109,20 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
       <c r="M637" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest AMO.xlsx
+++ b/BackTest/2020-01-24 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3025,7 +3025,7 @@
         <v>-29531168.55709999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-29827820.24009999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-28637159.52609999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-28170992.59609999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-29141283.48809999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-28382886.65609999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-28281177.50709999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-26565019.52609999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-27073565.26909999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-24709195.36709999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-23535486.17809999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-26518586.73409999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-24722092.91109999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-23955220.31609999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-24679714.09909999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-23556859.48509999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-22179731.99909999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-23294110.85109999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-23836559.64309999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-22417053.34509999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-24073880.98909999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-22383150.29509999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-23328013.90009999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-21857653.02809999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-23260207.80109999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-24137265.30609999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-23294110.85009999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-24823802.05909999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-23624665.58309999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-25018744.59409999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-24209493.18809999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-27646491.11949999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-29074473.17949999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-30214279.31849999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-30212297.28339999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-31513142.90739999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-32729230.90839999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-31809794.59139999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-30915785.56139999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-29555609.60039999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-29553624.28389999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-32440255.35439998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-30995321.76939997</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-30296255.27439997</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-29309012.85839997</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-29519691.56749996</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-30837488.71649996</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-30837488.71649996</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-31689118.93449996</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-33113308.76119996</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-29232145.19419996</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-30354999.80819996</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-29240620.95619996</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-29537272.64019996</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-29367757.39319996</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-29365751.17109996</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-30141099.52809996</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-30088867.37629995</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-31186294.70329995</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-31184072.70329995</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-29891702.84029995</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-31400314.86099995</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-30252032.95899995</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-31756296.88099995</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-44593272.92549995</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-44593272.92549995</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-45300815.18349995</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-45298438.28649995</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-47825625.69499995</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-49084092.50799995</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-48300268.38899995</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-49304462.32999995</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-48012092.46799994</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-49160374.36999995</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-47656110.44799995</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-47656110.44799995</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-48685731.67599995</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-47256533.55929995</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-46218436.56829995</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-50563552.48649995</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-49076240.08949995</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-50521173.67449995</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-49822107.17949995</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-50809349.59549996</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-52220380.13049995</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-52508556.05149996</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-51673877.35749996</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-52406846.90249996</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-50953437.55549996</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-50161137.67349996</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-50961913.31749996</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-50961913.31749996</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-52067816.40749996</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-52936398.15049996</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-50461843.33749996</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-51652504.05149996</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-50576173.14639996</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-57573972.83539996</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-56442642.45839997</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-56479751.11989997</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-54991116.19379997</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-56649407.08579996</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-57407803.91779996</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-64003127.65449996</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-64003127.65449996</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -17677,14 +17677,10 @@
         <v>-87059947.09239997</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J524" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
@@ -17714,3619 +17710,3065 @@
         <v>-85928616.71539997</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="n">
+        <v>1</v>
+      </c>
+      <c r="M525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="F526" t="n">
+        <v>1478836.634</v>
+      </c>
+      <c r="G526" t="n">
+        <v>-87407453.34939997</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="n">
+        <v>1</v>
+      </c>
+      <c r="M526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="E527" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F527" t="n">
+        <v>3370620.3005</v>
+      </c>
+      <c r="G527" t="n">
+        <v>-84036833.04889996</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="n">
+        <v>1</v>
+      </c>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="F528" t="n">
+        <v>758396.8320000001</v>
+      </c>
+      <c r="G528" t="n">
+        <v>-84795229.88089997</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="n">
+        <v>1</v>
+      </c>
+      <c r="M528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E529" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="F529" t="n">
+        <v>1353686.6524</v>
+      </c>
+      <c r="G529" t="n">
+        <v>-83441543.22849996</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="n">
+        <v>1</v>
+      </c>
+      <c r="M529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="E530" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="F530" t="n">
+        <v>1249991.05</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-84691534.27849996</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="E531" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="F531" t="n">
+        <v>1156757.664</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-83534776.61449996</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="F532" t="n">
+        <v>1461885.11</v>
+      </c>
+      <c r="G532" t="n">
+        <v>-82072891.50449996</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="n">
+        <v>1</v>
+      </c>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="F533" t="n">
+        <v>1241515.288</v>
+      </c>
+      <c r="G533" t="n">
+        <v>-83314406.79249996</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="n">
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="F534" t="n">
+        <v>1055048.515</v>
+      </c>
+      <c r="G534" t="n">
+        <v>-84369455.30749996</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="n">
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1317797.149</v>
+      </c>
+      <c r="G535" t="n">
+        <v>-83051658.15849996</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1275418.337</v>
+      </c>
+      <c r="G536" t="n">
+        <v>-84327076.49549995</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F537" t="n">
+        <v>3185937.315</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-81141139.18049996</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="F538" t="n">
+        <v>817727.169</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-80323412.01149996</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="F539" t="n">
+        <v>961815.129</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-81285227.14049995</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1046572.753</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-80238654.38749994</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="F541" t="n">
+        <v>1512739.684</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-81751394.07149994</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="F542" t="n">
+        <v>1182184.951</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-81751394.07149994</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="F543" t="n">
+        <v>1228164.6671</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-80523229.40439995</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1021145.466</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-81544374.87039995</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="E545" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="F545" t="n">
+        <v>95640.7029</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-81448734.16749994</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="E546" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="F546" t="n">
+        <v>1343224.436</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-82791958.60349995</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="E547" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="F547" t="n">
+        <v>1173709.189</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-81618249.41449995</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="E548" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="F548" t="n">
+        <v>2826202.931</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-84444452.34549995</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="E549" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="F549" t="n">
+        <v>1063524.278</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-85507976.62349994</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="E550" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="F550" t="n">
+        <v>860105.981</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-86368082.60449995</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="F551" t="n">
+        <v>1334748.674</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-87702831.27849995</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="F552" t="n">
+        <v>690590.733</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-87012240.54549995</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="F553" t="n">
+        <v>1309321.387</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-88321561.93249995</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="F554" t="n">
+        <v>885533.268</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-89207095.20049995</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
         <v>0.2529</v>
       </c>
-      <c r="J525" t="n">
+      <c r="C555" t="n">
         <v>0.2529</v>
       </c>
-      <c r="K525" t="inlineStr">
+      <c r="D555" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E555" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F555" t="n">
+        <v>10263</v>
+      </c>
+      <c r="G555" t="n">
+        <v>-89217358.20049995</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="n">
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="F556" t="n">
+        <v>913182.5550000001</v>
+      </c>
+      <c r="G556" t="n">
+        <v>-88304175.64549994</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="n">
+        <v>1</v>
+      </c>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.2551</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.2551</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.2551</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.2551</v>
+      </c>
+      <c r="F557" t="n">
+        <v>766872.595</v>
+      </c>
+      <c r="G557" t="n">
+        <v>-87537303.05049995</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="n">
+        <v>1</v>
+      </c>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>0.2552</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.2552</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.2552</v>
+      </c>
+      <c r="E558" t="n">
+        <v>0.2552</v>
+      </c>
+      <c r="F558" t="n">
+        <v>724493.7830000001</v>
+      </c>
+      <c r="G558" t="n">
+        <v>-86812809.26749994</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="n">
+        <v>1</v>
+      </c>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>0.2549</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.2549</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.2549</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0.2549</v>
+      </c>
+      <c r="F559" t="n">
+        <v>1122854.614</v>
+      </c>
+      <c r="G559" t="n">
+        <v>-87935663.88149995</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="n">
+        <v>1</v>
+      </c>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="F560" t="n">
+        <v>1377127.486</v>
+      </c>
+      <c r="G560" t="n">
+        <v>-89312791.36749995</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="n">
+        <v>1</v>
+      </c>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="F561" t="n">
+        <v>1114378.852</v>
+      </c>
+      <c r="G561" t="n">
+        <v>-88198412.51549995</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="n">
+        <v>1</v>
+      </c>
+      <c r="M561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="F562" t="n">
+        <v>1495788.159</v>
+      </c>
+      <c r="G562" t="n">
+        <v>-89694200.67449994</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="n">
+        <v>1</v>
+      </c>
+      <c r="M562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="E563" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="F563" t="n">
+        <v>953339.367</v>
+      </c>
+      <c r="G563" t="n">
+        <v>-88740861.30749995</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="n">
+        <v>1</v>
+      </c>
+      <c r="M563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="F564" t="n">
+        <v>1419506.298</v>
+      </c>
+      <c r="G564" t="n">
+        <v>-90160367.60549994</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="n">
+        <v>1</v>
+      </c>
+      <c r="M564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="F565" t="n">
+        <v>2222</v>
+      </c>
+      <c r="G565" t="n">
+        <v>-90158145.60549994</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="F566" t="n">
+        <v>1326272.912</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-91484418.51749994</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="F567" t="n">
+        <v>5656.1769</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-91478762.34059994</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="F568" t="n">
+        <v>995718.179</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-92474480.51959994</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="F569" t="n">
+        <v>1165233.426</v>
+      </c>
+      <c r="G569" t="n">
+        <v>-91309247.09359995</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="F570" t="n">
+        <v>775348.357</v>
+      </c>
+      <c r="G570" t="n">
+        <v>-90533898.73659995</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>0.2552</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.2552</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0.2552</v>
+      </c>
+      <c r="E571" t="n">
+        <v>0.2552</v>
+      </c>
+      <c r="F571" t="n">
+        <v>936387.8419999999</v>
+      </c>
+      <c r="G571" t="n">
+        <v>-91470286.57859994</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="n">
+        <v>1</v>
+      </c>
+      <c r="M571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="F572" t="n">
+        <v>1072000.04</v>
+      </c>
+      <c r="G572" t="n">
+        <v>-92542286.61859995</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="n">
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="F573" t="n">
+        <v>749921.0699999999</v>
+      </c>
+      <c r="G573" t="n">
+        <v>-93292207.68859994</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="n">
+        <v>1</v>
+      </c>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="F574" t="n">
+        <v>1368651.724</v>
+      </c>
+      <c r="G574" t="n">
+        <v>-91923555.96459994</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="n">
+        <v>1</v>
+      </c>
+      <c r="M574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="F575" t="n">
+        <v>944863.605</v>
+      </c>
+      <c r="G575" t="n">
+        <v>-92868419.56959994</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="n">
+        <v>1</v>
+      </c>
+      <c r="M575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="F576" t="n">
+        <v>1470360.872</v>
+      </c>
+      <c r="G576" t="n">
+        <v>-91398058.69759995</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="n">
+        <v>1</v>
+      </c>
+      <c r="M576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="F577" t="n">
+        <v>1402554.773</v>
+      </c>
+      <c r="G577" t="n">
+        <v>-92800613.47059995</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="C578" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="E578" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="F578" t="n">
+        <v>877057.505</v>
+      </c>
+      <c r="G578" t="n">
+        <v>-91923555.96559995</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="C579" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="E579" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F579" t="n">
+        <v>863254.456</v>
+      </c>
+      <c r="G579" t="n">
+        <v>-92786810.42159995</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="C580" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="F580" t="n">
+        <v>1529691.209</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-91257119.21259995</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="C581" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F581" t="n">
+        <v>5199136.476</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-96456255.68859994</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="F582" t="n">
+        <v>1394079.011</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-95062176.67759994</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="C583" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="E583" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="F583" t="n">
+        <v>809251.406</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-95871428.08359994</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F584" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-97871428.08359994</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F585" t="n">
+        <v>978766.654</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-96892661.42959994</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="C586" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="D586" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="E586" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="F586" t="n">
+        <v>1427982.06</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-95464679.36959994</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="C587" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1139806.139</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-96604485.50859994</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="F588" t="n">
+        <v>1300845.624</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-95303639.88459994</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="F589" t="n">
+        <v>1216088.001</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-95303639.88459994</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C590" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E590" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F590" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-97303639.88459994</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="E591" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="F591" t="n">
+        <v>919436.317</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-96384203.56759994</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F592" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-99384203.56759994</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C593" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F593" t="n">
+        <v>894009.03</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-98490194.53759994</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="C594" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="F594" t="n">
+        <v>1360175.961</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-97130018.57659994</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="C595" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="F595" t="n">
+        <v>1436457.823</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-95693560.75359994</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="C596" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="E596" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1097427.327</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-94596133.42659993</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="C597" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="F597" t="n">
+        <v>716018.02</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-95312151.44659993</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="C598" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="F598" t="n">
+        <v>1080475.803</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-94231675.64359993</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C599" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F599" t="n">
+        <v>2902484.793</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-97134160.43659993</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>0.2549</v>
+      </c>
+      <c r="C600" t="n">
+        <v>0.2549</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.2549</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.2549</v>
+      </c>
+      <c r="F600" t="n">
+        <v>383803.2224</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-96750357.21419993</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F601" t="n">
+        <v>707542.258</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-97457899.47219993</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="C602" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="F602" t="n">
+        <v>927912.08</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-96529987.39219993</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="C603" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="F603" t="n">
+        <v>1258466.813</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-95271520.57919994</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="C604" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="D604" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E604" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F604" t="n">
+        <v>371428.9961</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-94900091.58309995</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="C605" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="D605" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="E605" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="F605" t="n">
+        <v>783824.1189999999</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-95683915.70209995</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="C606" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="E606" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="F606" t="n">
+        <v>1004193.941</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-94679721.76109995</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="C607" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="D607" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="E607" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1292369.862</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-95972091.62309995</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="C608" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="D608" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="E608" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="F608" t="n">
+        <v>1148281.902</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-94823809.72109996</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="C609" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="D609" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="E609" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="F609" t="n">
+        <v>1504263.922</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-96328073.64309996</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="C610" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E610" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F610" t="n">
+        <v>2031.881</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-96326041.76209997</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="C611" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="E611" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1266942.575</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-97592984.33709997</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="C612" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="F612" t="n">
+        <v>1029621.228</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-98622605.56509997</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="C613" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="F613" t="n">
+        <v>1207612.238</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-99830217.80309997</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="C614" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1038096.991</v>
+      </c>
+      <c r="G614" t="n">
+        <v>-98792120.81209998</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="C615" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="F615" t="n">
+        <v>1283894.1</v>
+      </c>
+      <c r="G615" t="n">
+        <v>-100076014.9121</v>
+      </c>
+      <c r="H615" t="n">
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="C616" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1487312.397</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-98588702.51509997</v>
+      </c>
+      <c r="H616" t="n">
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="J616" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="K616" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L525" t="n">
-        <v>1</v>
-      </c>
-      <c r="M525" t="inlineStr"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="C526" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="D526" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="E526" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="F526" t="n">
-        <v>1478836.634</v>
-      </c>
-      <c r="G526" t="n">
-        <v>-87407453.34939997</v>
-      </c>
-      <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K526" t="inlineStr">
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="C617" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1444933.585</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-98588702.51509997</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="K617" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L526" t="n">
-        <v>1</v>
-      </c>
-      <c r="M526" t="inlineStr"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C527" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="D527" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="E527" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F527" t="n">
-        <v>3370620.3005</v>
-      </c>
-      <c r="G527" t="n">
-        <v>-84036833.04889996</v>
-      </c>
-      <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="J527" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L527" t="n">
-        <v>1</v>
-      </c>
-      <c r="M527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="C528" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="D528" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="E528" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="F528" t="n">
-        <v>758396.8320000001</v>
-      </c>
-      <c r="G528" t="n">
-        <v>-84795229.88089997</v>
-      </c>
-      <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
-      <c r="M528" t="inlineStr"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="C529" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="D529" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="E529" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="F529" t="n">
-        <v>1353686.6524</v>
-      </c>
-      <c r="G529" t="n">
-        <v>-83441543.22849996</v>
-      </c>
-      <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="J529" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L529" t="n">
-        <v>1</v>
-      </c>
-      <c r="M529" t="inlineStr"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="C530" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="D530" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="E530" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="F530" t="n">
-        <v>1249991.05</v>
-      </c>
-      <c r="G530" t="n">
-        <v>-84691534.27849996</v>
-      </c>
-      <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
-      <c r="M530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="C531" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="D531" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="E531" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="F531" t="n">
-        <v>1156757.664</v>
-      </c>
-      <c r="G531" t="n">
-        <v>-83534776.61449996</v>
-      </c>
-      <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L531" t="n">
-        <v>1</v>
-      </c>
-      <c r="M531" t="inlineStr"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="C532" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="D532" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="E532" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="F532" t="n">
-        <v>1461885.11</v>
-      </c>
-      <c r="G532" t="n">
-        <v>-82072891.50449996</v>
-      </c>
-      <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L532" t="n">
-        <v>1</v>
-      </c>
-      <c r="M532" t="inlineStr"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="C533" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="D533" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="E533" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="F533" t="n">
-        <v>1241515.288</v>
-      </c>
-      <c r="G533" t="n">
-        <v>-83314406.79249996</v>
-      </c>
-      <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="C534" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="D534" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="E534" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="F534" t="n">
-        <v>1055048.515</v>
-      </c>
-      <c r="G534" t="n">
-        <v>-84369455.30749996</v>
-      </c>
-      <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="C535" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="D535" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="E535" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="F535" t="n">
-        <v>1317797.149</v>
-      </c>
-      <c r="G535" t="n">
-        <v>-83051658.15849996</v>
-      </c>
-      <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="J535" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="C536" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="D536" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="E536" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="F536" t="n">
-        <v>1275418.337</v>
-      </c>
-      <c r="G536" t="n">
-        <v>-84327076.49549995</v>
-      </c>
-      <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C537" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="D537" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="E537" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F537" t="n">
-        <v>3185937.315</v>
-      </c>
-      <c r="G537" t="n">
-        <v>-81141139.18049996</v>
-      </c>
-      <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="J537" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="C538" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="D538" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="E538" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="F538" t="n">
-        <v>817727.169</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-80323412.01149996</v>
-      </c>
-      <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="J538" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="C539" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="D539" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="E539" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="F539" t="n">
-        <v>961815.129</v>
-      </c>
-      <c r="G539" t="n">
-        <v>-81285227.14049995</v>
-      </c>
-      <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C540" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="D540" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="E540" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="F540" t="n">
-        <v>1046572.753</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-80238654.38749994</v>
-      </c>
-      <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="C541" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="D541" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="E541" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="F541" t="n">
-        <v>1512739.684</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-81751394.07149994</v>
-      </c>
-      <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="C542" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="D542" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="E542" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="F542" t="n">
-        <v>1182184.951</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-81751394.07149994</v>
-      </c>
-      <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="J542" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="C543" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="D543" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="E543" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="F543" t="n">
-        <v>1228164.6671</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-80523229.40439995</v>
-      </c>
-      <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="C544" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="D544" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="E544" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="F544" t="n">
-        <v>1021145.466</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-81544374.87039995</v>
-      </c>
-      <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="C545" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="D545" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="E545" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="F545" t="n">
-        <v>95640.7029</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-81448734.16749994</v>
-      </c>
-      <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="C546" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="D546" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="E546" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="F546" t="n">
-        <v>1343224.436</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-82791958.60349995</v>
-      </c>
-      <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="C547" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="D547" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="E547" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="F547" t="n">
-        <v>1173709.189</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-81618249.41449995</v>
-      </c>
-      <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="C548" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="D548" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="E548" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="F548" t="n">
-        <v>2826202.931</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-84444452.34549995</v>
-      </c>
-      <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C549" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="D549" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="E549" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="F549" t="n">
-        <v>1063524.278</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-85507976.62349994</v>
-      </c>
-      <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="C550" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="D550" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="E550" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="F550" t="n">
-        <v>860105.981</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-86368082.60449995</v>
-      </c>
-      <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="C551" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="D551" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="E551" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="F551" t="n">
-        <v>1334748.674</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-87702831.27849995</v>
-      </c>
-      <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>0.2553</v>
-      </c>
-      <c r="C552" t="n">
-        <v>0.2553</v>
-      </c>
-      <c r="D552" t="n">
-        <v>0.2553</v>
-      </c>
-      <c r="E552" t="n">
-        <v>0.2553</v>
-      </c>
-      <c r="F552" t="n">
-        <v>690590.733</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-87012240.54549995</v>
-      </c>
-      <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="C553" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="D553" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="E553" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="F553" t="n">
-        <v>1309321.387</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-88321561.93249995</v>
-      </c>
-      <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="C554" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="D554" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="E554" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="F554" t="n">
-        <v>885533.268</v>
-      </c>
-      <c r="G554" t="n">
-        <v>-89207095.20049995</v>
-      </c>
-      <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C555" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D555" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E555" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="F555" t="n">
-        <v>10263</v>
-      </c>
-      <c r="G555" t="n">
-        <v>-89217358.20049995</v>
-      </c>
-      <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="C556" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="D556" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="E556" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="F556" t="n">
-        <v>913182.5550000001</v>
-      </c>
-      <c r="G556" t="n">
-        <v>-88304175.64549994</v>
-      </c>
-      <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L556" t="n">
-        <v>1</v>
-      </c>
-      <c r="M556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="C557" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="D557" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="E557" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="F557" t="n">
-        <v>766872.595</v>
-      </c>
-      <c r="G557" t="n">
-        <v>-87537303.05049995</v>
-      </c>
-      <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L557" t="n">
-        <v>1</v>
-      </c>
-      <c r="M557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="C558" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="D558" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="E558" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="F558" t="n">
-        <v>724493.7830000001</v>
-      </c>
-      <c r="G558" t="n">
-        <v>-86812809.26749994</v>
-      </c>
-      <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L558" t="n">
-        <v>1</v>
-      </c>
-      <c r="M558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="C559" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="D559" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="E559" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="F559" t="n">
-        <v>1122854.614</v>
-      </c>
-      <c r="G559" t="n">
-        <v>-87935663.88149995</v>
-      </c>
-      <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L559" t="n">
-        <v>1</v>
-      </c>
-      <c r="M559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="C560" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="D560" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="E560" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="F560" t="n">
-        <v>1377127.486</v>
-      </c>
-      <c r="G560" t="n">
-        <v>-89312791.36749995</v>
-      </c>
-      <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L560" t="n">
-        <v>1</v>
-      </c>
-      <c r="M560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="C561" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="D561" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="E561" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="F561" t="n">
-        <v>1114378.852</v>
-      </c>
-      <c r="G561" t="n">
-        <v>-88198412.51549995</v>
-      </c>
-      <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="C562" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="D562" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="E562" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="F562" t="n">
-        <v>1495788.159</v>
-      </c>
-      <c r="G562" t="n">
-        <v>-89694200.67449994</v>
-      </c>
-      <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L562" t="n">
-        <v>1</v>
-      </c>
-      <c r="M562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="C563" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="D563" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="E563" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="F563" t="n">
-        <v>953339.367</v>
-      </c>
-      <c r="G563" t="n">
-        <v>-88740861.30749995</v>
-      </c>
-      <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L563" t="n">
-        <v>1</v>
-      </c>
-      <c r="M563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="C564" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="D564" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="E564" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="F564" t="n">
-        <v>1419506.298</v>
-      </c>
-      <c r="G564" t="n">
-        <v>-90160367.60549994</v>
-      </c>
-      <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L564" t="n">
-        <v>1</v>
-      </c>
-      <c r="M564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="C565" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="D565" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="E565" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="F565" t="n">
-        <v>2222</v>
-      </c>
-      <c r="G565" t="n">
-        <v>-90158145.60549994</v>
-      </c>
-      <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="C566" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="D566" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="E566" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="F566" t="n">
-        <v>1326272.912</v>
-      </c>
-      <c r="G566" t="n">
-        <v>-91484418.51749994</v>
-      </c>
-      <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="C567" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="D567" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="E567" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="F567" t="n">
-        <v>5656.1769</v>
-      </c>
-      <c r="G567" t="n">
-        <v>-91478762.34059994</v>
-      </c>
-      <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="C568" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="D568" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="E568" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="F568" t="n">
-        <v>995718.179</v>
-      </c>
-      <c r="G568" t="n">
-        <v>-92474480.51959994</v>
-      </c>
-      <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="C569" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="D569" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="E569" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="F569" t="n">
-        <v>1165233.426</v>
-      </c>
-      <c r="G569" t="n">
-        <v>-91309247.09359995</v>
-      </c>
-      <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="C570" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="D570" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="E570" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="F570" t="n">
-        <v>775348.357</v>
-      </c>
-      <c r="G570" t="n">
-        <v>-90533898.73659995</v>
-      </c>
-      <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="C571" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="D571" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="E571" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="F571" t="n">
-        <v>936387.8419999999</v>
-      </c>
-      <c r="G571" t="n">
-        <v>-91470286.57859994</v>
-      </c>
-      <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L571" t="n">
-        <v>1</v>
-      </c>
-      <c r="M571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="C572" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="D572" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="E572" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="F572" t="n">
-        <v>1072000.04</v>
-      </c>
-      <c r="G572" t="n">
-        <v>-92542286.61859995</v>
-      </c>
-      <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L572" t="n">
-        <v>1</v>
-      </c>
-      <c r="M572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="C573" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="D573" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="E573" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="F573" t="n">
-        <v>749921.0699999999</v>
-      </c>
-      <c r="G573" t="n">
-        <v>-93292207.68859994</v>
-      </c>
-      <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L573" t="n">
-        <v>1</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="C574" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="D574" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="E574" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="F574" t="n">
-        <v>1368651.724</v>
-      </c>
-      <c r="G574" t="n">
-        <v>-91923555.96459994</v>
-      </c>
-      <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L574" t="n">
-        <v>1</v>
-      </c>
-      <c r="M574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C575" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="D575" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="E575" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="F575" t="n">
-        <v>944863.605</v>
-      </c>
-      <c r="G575" t="n">
-        <v>-92868419.56959994</v>
-      </c>
-      <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L575" t="n">
-        <v>1</v>
-      </c>
-      <c r="M575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="C576" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="D576" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="E576" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="F576" t="n">
-        <v>1470360.872</v>
-      </c>
-      <c r="G576" t="n">
-        <v>-91398058.69759995</v>
-      </c>
-      <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L576" t="n">
-        <v>1</v>
-      </c>
-      <c r="M576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="C577" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="D577" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="E577" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="F577" t="n">
-        <v>1402554.773</v>
-      </c>
-      <c r="G577" t="n">
-        <v>-92800613.47059995</v>
-      </c>
-      <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="C578" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="D578" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="E578" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="F578" t="n">
-        <v>877057.505</v>
-      </c>
-      <c r="G578" t="n">
-        <v>-91923555.96559995</v>
-      </c>
-      <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="C579" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="D579" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="E579" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="F579" t="n">
-        <v>863254.456</v>
-      </c>
-      <c r="G579" t="n">
-        <v>-92786810.42159995</v>
-      </c>
-      <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="C580" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="D580" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="E580" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="F580" t="n">
-        <v>1529691.209</v>
-      </c>
-      <c r="G580" t="n">
-        <v>-91257119.21259995</v>
-      </c>
-      <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="C581" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D581" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="E581" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F581" t="n">
-        <v>5199136.476</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-96456255.68859994</v>
-      </c>
-      <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="C582" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="D582" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="E582" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="F582" t="n">
-        <v>1394079.011</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-95062176.67759994</v>
-      </c>
-      <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="C583" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="D583" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="E583" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="F583" t="n">
-        <v>809251.406</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-95871428.08359994</v>
-      </c>
-      <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C584" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D584" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E584" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F584" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-97871428.08359994</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C585" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D585" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E585" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="F585" t="n">
-        <v>978766.654</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-96892661.42959994</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="C586" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="D586" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="E586" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="F586" t="n">
-        <v>1427982.06</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-95464679.36959994</v>
-      </c>
-      <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C587" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D587" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E587" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="F587" t="n">
-        <v>1139806.139</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-96604485.50859994</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="C588" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="D588" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="E588" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="F588" t="n">
-        <v>1300845.624</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-95303639.88459994</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="C589" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="D589" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="E589" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="F589" t="n">
-        <v>1216088.001</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-95303639.88459994</v>
-      </c>
-      <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C590" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D590" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E590" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F590" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-97303639.88459994</v>
-      </c>
-      <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="C591" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="D591" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="E591" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="F591" t="n">
-        <v>919436.317</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-96384203.56759994</v>
-      </c>
-      <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C592" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D592" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E592" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F592" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-99384203.56759994</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="C593" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="D593" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="E593" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="F593" t="n">
-        <v>894009.03</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-98490194.53759994</v>
-      </c>
-      <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="C594" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="D594" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="E594" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="F594" t="n">
-        <v>1360175.961</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-97130018.57659994</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="C595" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="D595" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="E595" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="F595" t="n">
-        <v>1436457.823</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-95693560.75359994</v>
-      </c>
-      <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="C596" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="D596" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="E596" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="F596" t="n">
-        <v>1097427.327</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-94596133.42659993</v>
-      </c>
-      <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="C597" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="D597" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="E597" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="F597" t="n">
-        <v>716018.02</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-95312151.44659993</v>
-      </c>
-      <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="C598" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="D598" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="E598" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="F598" t="n">
-        <v>1080475.803</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-94231675.64359993</v>
-      </c>
-      <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C599" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="D599" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="E599" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F599" t="n">
-        <v>2902484.793</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-97134160.43659993</v>
-      </c>
-      <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="C600" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="D600" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="E600" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="F600" t="n">
-        <v>383803.2224</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-96750357.21419993</v>
-      </c>
-      <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="C601" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="D601" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="E601" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="F601" t="n">
-        <v>707542.258</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-97457899.47219993</v>
-      </c>
-      <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="C602" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="D602" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="E602" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="F602" t="n">
-        <v>927912.08</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-96529987.39219993</v>
-      </c>
-      <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="C603" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="D603" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="E603" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="F603" t="n">
-        <v>1258466.813</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-95271520.57919994</v>
-      </c>
-      <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="C604" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="D604" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="E604" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="F604" t="n">
-        <v>371428.9961</v>
-      </c>
-      <c r="G604" t="n">
-        <v>-94900091.58309995</v>
-      </c>
-      <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="C605" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="D605" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="E605" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="F605" t="n">
-        <v>783824.1189999999</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-95683915.70209995</v>
-      </c>
-      <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="C606" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="D606" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="E606" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="F606" t="n">
-        <v>1004193.941</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-94679721.76109995</v>
-      </c>
-      <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="C607" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="D607" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="E607" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="F607" t="n">
-        <v>1292369.862</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-95972091.62309995</v>
-      </c>
-      <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="C608" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="D608" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="E608" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="F608" t="n">
-        <v>1148281.902</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-94823809.72109996</v>
-      </c>
-      <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="C609" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="D609" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="E609" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="F609" t="n">
-        <v>1504263.922</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-96328073.64309996</v>
-      </c>
-      <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="C610" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="D610" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="E610" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="F610" t="n">
-        <v>2031.881</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-96326041.76209997</v>
-      </c>
-      <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="C611" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="D611" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="E611" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="F611" t="n">
-        <v>1266942.575</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-97592984.33709997</v>
-      </c>
-      <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="C612" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="D612" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="E612" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="F612" t="n">
-        <v>1029621.228</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-98622605.56509997</v>
-      </c>
-      <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="C613" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="D613" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="E613" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="F613" t="n">
-        <v>1207612.238</v>
-      </c>
-      <c r="G613" t="n">
-        <v>-99830217.80309997</v>
-      </c>
-      <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="C614" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="D614" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="E614" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="F614" t="n">
-        <v>1038096.991</v>
-      </c>
-      <c r="G614" t="n">
-        <v>-98792120.81209998</v>
-      </c>
-      <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="C615" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="D615" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="E615" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="F615" t="n">
-        <v>1283894.1</v>
-      </c>
-      <c r="G615" t="n">
-        <v>-100076014.9121</v>
-      </c>
-      <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="C616" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="D616" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="E616" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="F616" t="n">
-        <v>1487312.397</v>
-      </c>
-      <c r="G616" t="n">
-        <v>-98588702.51509997</v>
-      </c>
-      <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="C617" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="D617" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="E617" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="F617" t="n">
-        <v>1444933.585</v>
-      </c>
-      <c r="G617" t="n">
-        <v>-98588702.51509997</v>
-      </c>
-      <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21358,14 +20800,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21397,14 +20833,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21436,14 +20866,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21475,14 +20899,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21511,17 +20929,15 @@
         <v>-97816975.36059999</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.2534</v>
+      </c>
       <c r="J622" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2534</v>
+      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21550,15 +20966,17 @@
         <v>-98651654.0546</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.256</v>
+      </c>
       <c r="J623" t="n">
-        <v>0.2529</v>
+        <v>0.2534</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L623" t="n">
@@ -21593,11 +21011,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>0.2529</v>
+        <v>0.2534</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L624" t="n">
@@ -21631,14 +21049,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21670,14 +21082,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21709,14 +21115,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21748,14 +21148,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21787,14 +21181,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21826,14 +21214,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21865,14 +21247,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21901,19 +21277,11 @@
         <v>-101408542.6</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="J632" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21942,19 +21310,11 @@
         <v>-100022939.352</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>0.2542</v>
-      </c>
-      <c r="J633" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21983,19 +21343,11 @@
         <v>-100022939.352</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="J634" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22024,19 +21376,11 @@
         <v>-101213600.066</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="J635" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22065,19 +21409,11 @@
         <v>-100200930.362</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="J636" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22109,20 +21445,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
       <c r="M637" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest AMO.xlsx
+++ b/BackTest/2020-01-24 BackTest AMO.xlsx
@@ -3025,7 +3025,7 @@
         <v>-29531168.55709999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-29827820.24009999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-28637159.52609999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-28170992.59609999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-29141283.48809999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-28382886.65609999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-28281177.50709999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-26565019.52609999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-24679714.09909999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-24789899.01009999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-23743326.25709999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-24073880.98909999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-23751802.01909999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-23328013.90009999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-21857653.02809999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-23260207.80109999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-24209493.18809999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-39285802.96299995</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-40271201.32899994</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-41631377.28999995</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-40194919.46699995</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-41292346.79399995</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-44231187.25899994</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-43512797.12249994</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-44593272.92549995</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-44593272.92549995</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-45300815.18349995</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-45298438.28649995</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-47825625.69499995</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-48685731.67599995</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-50563552.48649995</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-49076240.08949995</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-50809349.59549996</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-52220380.13049995</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-52508556.05149996</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -17248,10 +17248,14 @@
         <v>-84617485.56539997</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0.2529</v>
+      </c>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
@@ -17284,8 +17288,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17317,8 +17327,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17512,10 +17528,14 @@
         <v>-83396953.56539997</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0.2533</v>
+      </c>
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
@@ -17548,8 +17568,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +17604,19 @@
         <v>-84780334.81339997</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="J521" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17644,10 +17678,14 @@
         <v>-87059947.09239997</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="J523" t="n">
+        <v>0.2533</v>
+      </c>
       <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
@@ -17680,8 +17718,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +17754,19 @@
         <v>-85928616.71539997</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +17828,17 @@
         <v>-84036833.04889996</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.2536</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17813,7 +17871,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +17904,17 @@
         <v>-83441543.22849996</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.2533</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +17947,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +17980,17 @@
         <v>-83534776.61449996</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0.2533</v>
+      </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18019,17 @@
         <v>-82072891.50449996</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.2537</v>
+      </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18058,17 @@
         <v>-83314406.79249996</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18097,17 @@
         <v>-84369455.30749996</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.2536</v>
+      </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18136,17 @@
         <v>-83051658.15849996</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.2531</v>
+      </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +18175,17 @@
         <v>-84327076.49549995</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.2537</v>
+      </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +18214,17 @@
         <v>-81141139.18049996</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0.2533</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +18253,17 @@
         <v>-80323412.01149996</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.2536</v>
+      </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +18296,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18329,17 @@
         <v>-80238654.38749994</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.2536</v>
+      </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18368,17 @@
         <v>-81751394.07149994</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0.2538</v>
+      </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +18407,17 @@
         <v>-81751394.07149994</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0.2536</v>
+      </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +18446,17 @@
         <v>-80523229.40439995</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0.2536</v>
+      </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +18489,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +18526,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +18563,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18440,7 +18600,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18473,7 +18637,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18506,7 +18674,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18539,7 +18711,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18572,7 +18748,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18605,7 +18785,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18638,7 +18822,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18671,7 +18859,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18704,7 +18896,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18737,7 +18933,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18770,7 +18970,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18803,7 +19007,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18836,7 +19044,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18869,7 +19081,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18902,7 +19118,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18935,7 +19155,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18968,7 +19192,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19001,7 +19229,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19034,7 +19266,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19067,7 +19303,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19100,7 +19340,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19133,7 +19377,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19166,7 +19414,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19199,7 +19451,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19232,7 +19488,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +19525,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19298,7 +19562,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19331,7 +19599,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19364,7 +19636,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +19673,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +19710,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +19747,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +19784,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +19821,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +19858,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19595,7 +19895,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +19932,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +19969,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +20006,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19727,7 +20043,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +20080,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19793,7 +20117,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19826,7 +20154,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19859,7 +20191,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +20224,17 @@
         <v>-96384203.56759994</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +20263,17 @@
         <v>-99384203.56759994</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.2531</v>
+      </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +20302,17 @@
         <v>-98490194.53759994</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +20341,17 @@
         <v>-97130018.57659994</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.253</v>
+      </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +20384,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20057,7 +20421,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +20458,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +20495,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +20532,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20569,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +20606,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +20639,17 @@
         <v>-96529987.39219993</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0.253</v>
+      </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +20682,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +20719,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +20756,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +20793,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20830,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +20867,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +20904,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +20941,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20978,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +21015,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +21052,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +21085,17 @@
         <v>-98792120.81209998</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20685,10 +21129,12 @@
       <c r="I615" t="n">
         <v>0.2544</v>
       </c>
-      <c r="J615" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20722,12 +21168,10 @@
       <c r="I616" t="n">
         <v>0.2536</v>
       </c>
-      <c r="J616" t="n">
-        <v>0.2544</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L616" t="n">
@@ -20758,15 +21202,15 @@
         <v>-98588702.51509997</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
         <v>0.2544</v>
       </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L617" t="n">
@@ -20797,11 +21241,17 @@
         <v>-99287769.01009998</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.2544</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20830,11 +21280,17 @@
         <v>-98300526.59409998</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.2543</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20863,11 +21319,17 @@
         <v>-98300526.59409998</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.2546</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20896,11 +21358,17 @@
         <v>-99533566.11909999</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.2546</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20934,10 +21402,12 @@
       <c r="I622" t="n">
         <v>0.2534</v>
       </c>
-      <c r="J622" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20966,17 +21436,13 @@
         <v>-98651654.0546</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="J623" t="n">
-        <v>0.2534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L623" t="n">
@@ -21007,15 +21473,15 @@
         <v>-97918684.5096</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>0.2534</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L624" t="n">
@@ -21050,7 +21516,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21079,11 +21549,17 @@
         <v>-101372093.8566</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0.2531</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21112,11 +21588,17 @@
         <v>-100579793.9746</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.2529</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21149,7 +21631,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21182,7 +21668,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21211,11 +21701,17 @@
         <v>-101171221.253</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.2537</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21248,7 +21744,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21281,7 +21781,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21310,11 +21814,17 @@
         <v>-100022939.352</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21343,11 +21853,17 @@
         <v>-100022939.352</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.2543</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21376,11 +21892,17 @@
         <v>-101213600.066</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0.2543</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21409,11 +21931,17 @@
         <v>-100200930.362</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.254</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21446,7 +21974,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
